--- a/Datasets/Pigoo/CiudadesPIGOO_ClaveInegi_prev.xlsx
+++ b/Datasets/Pigoo/CiudadesPIGOO_ClaveInegi_prev.xlsx
@@ -21,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'OOAPAS-PIGOO'!$B$1:$L$246</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$A$1:$B$155</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">SUN!$A$1:$N$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Unipigoo!$A$1:$H$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Unipigoo!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7114" uniqueCount="3277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7115" uniqueCount="3278">
   <si>
     <t>Municipio-Inegi</t>
   </si>
@@ -9864,6 +9864,9 @@
   </si>
   <si>
     <t>Como en PIGOO</t>
+  </si>
+  <si>
+    <t>Cd.</t>
   </si>
 </sst>
 </file>
@@ -19741,7 +19744,7 @@
         <v>394</v>
       </c>
       <c r="C194" s="3" t="str">
-        <f t="shared" ref="C194:C257" si="9">+_xlfn.CONCAT(B194,", ",G194)</f>
+        <f t="shared" ref="C194:C246" si="9">+_xlfn.CONCAT(B194,", ",G194)</f>
         <v>Navolato, Sinaloa</v>
       </c>
       <c r="D194" s="3">
@@ -22345,10 +22348,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I246"/>
+  <dimension ref="A1:J246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I246"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22357,13 +22360,13 @@
     <col min="2" max="2" width="37.5703125" hidden="1" customWidth="1"/>
     <col min="3" max="3" width="37.5703125" customWidth="1"/>
     <col min="5" max="5" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="16" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
         <v>3273</v>
       </c>
@@ -22386,8 +22389,11 @@
       <c r="I1" s="16" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="16" t="s">
+        <v>3277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3026</v>
       </c>
@@ -22424,7 +22430,7 @@
         <v>02003</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3027</v>
       </c>
@@ -22461,7 +22467,7 @@
         <v>02004</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3028</v>
       </c>
@@ -22498,7 +22504,7 @@
         <v>02001</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3029</v>
       </c>
@@ -22535,7 +22541,7 @@
         <v>02002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3030</v>
       </c>
@@ -22571,7 +22577,7 @@
         <v>05035</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3031</v>
       </c>
@@ -22607,7 +22613,7 @@
         <v>05030</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3032</v>
       </c>
@@ -22644,7 +22650,7 @@
         <v>11017</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3033</v>
       </c>
@@ -22681,7 +22687,7 @@
         <v>11007</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3034</v>
       </c>
@@ -22718,7 +22724,7 @@
         <v>15106</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3035</v>
       </c>
@@ -22755,7 +22761,7 @@
         <v>15014</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3036</v>
       </c>
@@ -22792,7 +22798,7 @@
         <v>19039</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3037</v>
       </c>
@@ -22829,7 +22835,7 @@
         <v>21114</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3038</v>
       </c>
@@ -22866,7 +22872,7 @@
         <v>21085</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3039</v>
       </c>
@@ -22903,7 +22909,7 @@
         <v>22016</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3040</v>
       </c>
@@ -31404,7 +31410,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:J1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
